--- a/similarities/split_global/harmonic_similarity_timestamps_214.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_214.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,326 +484,348 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_89</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_73</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7', 'D:maj'], ['E:7/G#', 'A:7/G', 'D:maj/F#']]</t>
+          <t>['G:maj/B', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb'], ['C:7', 'F:7', 'Bb']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:00.580000', '0:00:09.400000'), ('0:00:54.820000', '0:01:01.800000')]</t>
+          <t>('0:00:18.800000', '0:00:21.340000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:19.130000', '0:00:20.830000'), ('0:00:24.250000', '0:00:28.150000')]</t>
+          <t>('0:00:15.730000', '0:00:17.850000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=0.58', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=54.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=18.8</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=19.13', 'https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=24.25']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=15.73</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_32</t>
+          <t>schubert-winterreise_101</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>schubert-winterreise_93</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G', 'D:7', 'G']]</t>
+          <t>['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>['A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:11.550000', '0:00:25.740000')]</t>
+          <t>('0:00:30.800000', '0:00:45.300000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:16.200000', '0:00:18.460000')]</t>
+          <t>('0:01:07.700000', '0:01:14.300000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=11.55']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-101#t=30.8</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=16.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-93#t=67.7</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>schubert-winterreise_49</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>schubert-winterreise_116</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['A:min', 'E:maj/G#', 'A:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:03.044470', '0:00:11.035850')]</t>
+          <t>('0:00:10.760000', '0:00:16.080000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:16.020000', '0:00:22.500000')]</t>
+          <t>('0:00:08.440000', '0:00:17.540000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-291#t=3.04447']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=10.76</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=16.02']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=8.44</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
+          <t>schubert-winterreise_18</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>isophonics_132</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G/3']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['C#:min', 'G#:7', 'C#:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:22.020589', '0:00:24.598004')]</t>
+          <t>('0:00:55.700000', '0:01:04.180000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:58.080000', '0:01:05.660000')]</t>
+          <t>('0:00:24.282834', '0:00:31.446190')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=22.020589']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=55.7</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-132#t=24.282834</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
+          <t>isophonics_15</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'D']]</t>
+          <t>['Db', 'Ab', 'Db']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'C:maj']]</t>
+          <t>['F', 'C', 'F']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:23.502731', '0:01:34.167952')]</t>
+          <t>('0:02:05.160000', '0:02:09.590000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:02.680000', '0:01:13.680000')]</t>
+          <t>('0:00:33.724965', '0:00:54.715804')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-133#t=83.502731']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=125.16</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=62.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-15#t=33.724965</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>schubert-winterreise_64</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>schubert-winterreise_58</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['A:min', 'E:7/G#', 'A:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:12.640000', '0:01:23.380000')]</t>
+          <t>('0:00:00.820000', '0:00:06.760000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:21.780000', '0:00:25.300000')]</t>
+          <t>('0:00:37.960000', '0:00:44.800000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=72.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=0.82</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-154#t=21.78']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-58#t=37.96</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>isophonics_226</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G']]</t>
+          <t>['A', 'E', 'F#:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/A#', 'F:maj/A'], ['F:min/C', 'C:7', 'F:min'], ['F:min/G#', 'A#:min', 'F:min/G#']]</t>
+          <t>['C:maj/G', 'G:maj', 'A:min/C']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:04:14.260000', '0:04:20.200000'), ('0:00:23.040000', '0:00:28.920000'), ('0:00:07.840000', '0:00:11.420000')]</t>
+          <t>('0:00:16.759569', '0:00:31.190770')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:14.900000', '0:01:26.120000'), ('0:00:43.680000', '0:00:45.800000'), ('0:01:37.760000', '0:01:49.380000')]</t>
+          <t>('0:00:18.220000', '0:00:23.380000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=254.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=23.04', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=7.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-226#t=16.759569</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=74.9', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=43.68', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=97.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=18.22</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -812,378 +834,396 @@
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
+          <t>jaah_74</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['A:min7/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj/B', 'C:min']]</t>
+          <t>['F:min7', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:10.560000', '0:00:17.340000')]</t>
+          <t>('0:01:05.760000', '0:01:11.940000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:13.520000', '0:00:19.080000')]</t>
+          <t>('0:00:17.680000', '0:00:20.040000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=10.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=65.76</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=13.52']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=17.68</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
+          <t>isophonics_2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>isophonics_173</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['Bb/3', 'Ab/5', 'Eb:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['A', 'G', 'D']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:02.460000', '0:00:17.160000')]</t>
+          <t>('0:03:26.313000', '0:03:27.541000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:59.600000', '0:01:13.880000')]</t>
+          <t>('0:00:12.004648', '0:00:17.670317')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=2.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=206.313</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=59.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-173#t=12.004648</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>isophonics_101</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
+          <t>['C#', 'F#/5', 'C#', 'F#/5']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>['Ab', 'Db', 'Ab', 'Db']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:43', '0:02:02.840000')]</t>
+          <t>('0:00:01.206300', '0:02:07.006105')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:57.860000', '0:01:03.440000')]</t>
+          <t>('0:01:56.690000', '0:02:03.070000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=103.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-101#t=1.2063</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-176#t=57.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=116.69</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_146</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['D', 'G', 'D', 'G', 'D']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:05.915850', '0:00:14.867142')]</t>
+          <t>('0:00:01.150000', '0:00:07.605000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:40.490000', '0:00:47.860000')]</t>
+          <t>('0:01:51.920000', '0:01:55.980000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-146#t=5.91585']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=1.15</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=40.49']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=111.92</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>isophonics_123</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['E', 'B:7', 'E', 'B:7', 'E']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
+          <t>['E', 'A', 'E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:01.683832', '0:01:11.056785')]</t>
+          <t>('0:02:08.760000', '0:02:14.600000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:14.900000', '0:01:33.840000')]</t>
+          <t>('0:00:08.413696', '0:00:13.057687')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=61.683832']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=128.76</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=74.9']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-123#t=8.413696</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>schubert-winterreise_73</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_78</t>
+          <t>isophonics_15</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['A:min7/C', 'D:7', 'G:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb'], ['C:min7', 'F:7', 'Bb']]</t>
+          <t>['C', 'F', 'C']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:12.520000', '0:01:23.280000'), ('0:01:08.800000', '0:01:16.200000')]</t>
+          <t>('0:01:05.200000', '0:01:07.500000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:49.560000', '0:00:55.720000'), ('0:00:40.640000', '0:00:48.100000')]</t>
+          <t>('0:01:04.514625', '0:01:27.246961')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=72.52', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=68.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56', 'https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=40.64']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-15#t=64.514625</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_175</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>schubert-winterreise_7</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'A:min'], ['G', 'F', 'C']]</t>
+          <t>['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['Ab:maj', 'Eb/3', 'F:min'], ['Eb:maj', 'Db:maj', 'Ab:maj']]</t>
+          <t>['A:min', 'B:hdim7/D', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:00.175157', '0:00:04.720022'), ('0:00:08.423605', '0:00:15.018072')]</t>
+          <t>('0:01:37.720000', '0:01:54.060000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:20.996000', '0:00:24.398000'), ('0:00:45.887000', '0:00:51.649000')]</t>
+          <t>('0:00:11.940000', '0:00:19.020000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-175#t=0.175157', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-175#t=8.423605']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=97.72</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=20.996', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=45.887']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=11.94</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>schubert-winterreise_80</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_41</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:03.101913', '0:00:07.754783')]</t>
+          <t>('0:02:10.840000', '0:02:15.980000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:18.260000', '0:00:24.820000')]</t>
+          <t>('0:00:00.660000', '0:00:02.680000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-82#t=3.101913']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=130.84</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=18.26']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=0.66</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
